--- a/data.xlsx
+++ b/data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>username</t>
   </si>
@@ -34,15 +34,6 @@
   </si>
   <si>
     <t>test3@gmail.com</t>
-  </si>
-  <si>
-    <t>"1212"</t>
-  </si>
-  <si>
-    <t>"1122"</t>
-  </si>
-  <si>
-    <t>"123123"</t>
   </si>
 </sst>
 </file>
@@ -425,7 +416,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -445,24 +436,24 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
+      <c r="B2">
+        <v>1212</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
+      <c r="B3">
+        <v>1212</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
+      <c r="B4">
+        <v>23232</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -413,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -454,6 +454,15 @@
       </c>
       <c r="B4">
         <v>23232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>423423</v>
+      </c>
+      <c r="B5">
+        <f>32423-554</f>
+        <v>31869</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="-120" windowWidth="24580" windowHeight="15300" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="-100" windowWidth="24580" windowHeight="15300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="usernames" sheetId="1" r:id="rId1"/>
